--- a/doc/项目启动用文档/项目开发计划.xlsx
+++ b/doc/项目启动用文档/项目开发计划.xlsx
@@ -19,43 +19,43 @@
     <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_ML1">[3]分类数据!$C$3</definedName>
-    <definedName name="_ML10">[3]分类数据!$C$12</definedName>
-    <definedName name="_ML2">[3]分类数据!$C$4</definedName>
-    <definedName name="_ML3">[3]分类数据!$C$5</definedName>
-    <definedName name="_ML4">[3]分类数据!$C$6</definedName>
-    <definedName name="_ML5">[3]分类数据!$C$7</definedName>
-    <definedName name="_ML6">[3]分类数据!$C$8</definedName>
-    <definedName name="_ML7">[3]分类数据!$C$9</definedName>
-    <definedName name="_ML8">[3]分类数据!$C$10</definedName>
-    <definedName name="_ML9">[3]分类数据!$C$11</definedName>
+    <definedName name="_ML1">[1]分类数据!$C$3</definedName>
+    <definedName name="_ML10">[1]分类数据!$C$12</definedName>
+    <definedName name="_ML2">[1]分类数据!$C$4</definedName>
+    <definedName name="_ML3">[1]分类数据!$C$5</definedName>
+    <definedName name="_ML4">[1]分类数据!$C$6</definedName>
+    <definedName name="_ML5">[1]分类数据!$C$7</definedName>
+    <definedName name="_ML6">[1]分类数据!$C$8</definedName>
+    <definedName name="_ML7">[1]分类数据!$C$9</definedName>
+    <definedName name="_ML8">[1]分类数据!$C$10</definedName>
+    <definedName name="_ML9">[1]分类数据!$C$11</definedName>
     <definedName name="CMRight">#REF!</definedName>
-    <definedName name="e.total">[1]同行评审!$M$8</definedName>
-    <definedName name="effort.ta">[2]引言!#REF!</definedName>
+    <definedName name="e.total">[2]同行评审!$M$8</definedName>
+    <definedName name="effort.ta">[3]引言!#REF!</definedName>
     <definedName name="MeasureKind">#REF!</definedName>
     <definedName name="MilestoneName">#REF!</definedName>
     <definedName name="ModuleName">#REF!</definedName>
     <definedName name="ProductKind">#REF!</definedName>
     <definedName name="ReviewKind">#REF!</definedName>
-    <definedName name="size.ta">[2]引言!#REF!</definedName>
+    <definedName name="size.ta">[3]引言!#REF!</definedName>
     <definedName name="StaffName">#REF!</definedName>
     <definedName name="StatOKNG">#REF!</definedName>
     <definedName name="StatOpenClose">#REF!</definedName>
     <definedName name="StatYesNo">#REF!</definedName>
-    <definedName name="t.all">[1]同行评审!#REF!</definedName>
-    <definedName name="t.at">[1]同行评审!#REF!</definedName>
-    <definedName name="t.dd">[1]同行评审!#REF!</definedName>
-    <definedName name="t.it">[1]同行评审!#REF!</definedName>
-    <definedName name="t.pd">[1]同行评审!#REF!</definedName>
-    <definedName name="t.pr">[1]同行评审!#REF!</definedName>
-    <definedName name="t.ra">[1]同行评审!#REF!</definedName>
-    <definedName name="t.sd">[1]同行评审!#REF!</definedName>
-    <definedName name="t.st1">[1]同行评审!#REF!</definedName>
-    <definedName name="t.st2">[1]同行评审!#REF!</definedName>
-    <definedName name="t.st3">[1]同行评审!#REF!</definedName>
-    <definedName name="t.ut">[1]同行评审!#REF!</definedName>
+    <definedName name="t.all">[2]同行评审!#REF!</definedName>
+    <definedName name="t.at">[2]同行评审!#REF!</definedName>
+    <definedName name="t.dd">[2]同行评审!#REF!</definedName>
+    <definedName name="t.it">[2]同行评审!#REF!</definedName>
+    <definedName name="t.pd">[2]同行评审!#REF!</definedName>
+    <definedName name="t.pr">[2]同行评审!#REF!</definedName>
+    <definedName name="t.ra">[2]同行评审!#REF!</definedName>
+    <definedName name="t.sd">[2]同行评审!#REF!</definedName>
+    <definedName name="t.st1">[2]同行评审!#REF!</definedName>
+    <definedName name="t.st2">[2]同行评审!#REF!</definedName>
+    <definedName name="t.st3">[2]同行评审!#REF!</definedName>
+    <definedName name="t.ut">[2]同行评审!#REF!</definedName>
     <definedName name="Total.type">#REF!</definedName>
-    <definedName name="tp.ra">[1]同行评审!#REF!</definedName>
+    <definedName name="tp.ra">[2]同行评审!#REF!</definedName>
     <definedName name="WORKDAYS">'[4]1.概述'!$H$4</definedName>
     <definedName name="担当">[5]分类数据!$D$3</definedName>
     <definedName name="工作产品">[5]分类数据!$E$3:$E$15</definedName>
@@ -64,7 +64,7 @@
     <definedName name="评审类别">[5]分类数据!$F$3:$F$5</definedName>
     <definedName name="状态">[5]分类数据!$G$3:$G$4</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -85,6 +85,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="7"/>
             <charset val="134"/>
           </rPr>
           <t>ibm:
@@ -98,6 +99,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="7"/>
             <charset val="134"/>
           </rPr>
           <t>ibm:
@@ -172,24 +174,7 @@
     <t>项目名称</t>
   </si>
   <si>
-    <r>
-      <t>CRM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="7"/>
-        <charset val="134"/>
-      </rPr>
-      <t>客户关系管理系统</t>
-    </r>
-  </si>
-  <si>
     <t>项目组名称</t>
-  </si>
-  <si>
-    <t>Code Factory</t>
   </si>
   <si>
     <t>实训经理</t>
@@ -441,6 +426,14 @@
   <si>
     <t>审批人/日期</t>
   </si>
+  <si>
+    <t>CF客户关系管理系统</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CodeFactory</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -448,12 +441,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="184" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="185" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="186" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="187" formatCode="mmm"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="mmm"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -606,19 +599,6 @@
       <family val="22"/>
     </font>
     <font>
-      <i/>
-      <sz val="10"/>
-      <name val="MS Sans Serif"/>
-      <family val="38"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="仿宋体"/>
-      <family val="7"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color indexed="36"/>
@@ -660,11 +640,6 @@
       <sz val="12"/>
       <name val="黑体"/>
       <family val="54"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -833,40 +808,40 @@
   <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="186" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="187" fontId="34" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="15" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="31" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="15" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -941,10 +916,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="14" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="16" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="16" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="16">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="16">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
@@ -959,7 +934,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="16" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="16" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
@@ -986,9 +961,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="14" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -998,56 +970,44 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1067,15 +1027,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1085,29 +1036,53 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="23">
@@ -13486,6 +13461,47 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="发行控制"/>
+      <sheetName val="填写及缩略语说明"/>
+      <sheetName val="Cover"/>
+      <sheetName val="Project Status"/>
+      <sheetName val="Requirements Tracking"/>
+      <sheetName val="Size Tracking"/>
+      <sheetName val="Effort Tracking"/>
+      <sheetName val="Schedule Tracking"/>
+      <sheetName val="Quality Tracking"/>
+      <sheetName val="Review Tracking"/>
+      <sheetName val="Test Tracking"/>
+      <sheetName val="Critical Resource Tracking"/>
+      <sheetName val="Risk Tracking"/>
+      <sheetName val="PDB-DEV"/>
+      <sheetName val="分类数据"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="发行控制"/>
       <sheetName val="封面"/>
       <sheetName val="目录"/>
       <sheetName val="基本信息"/>
@@ -13522,7 +13538,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -13538,47 +13554,6 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="发行控制"/>
-      <sheetName val="填写及缩略语说明"/>
-      <sheetName val="Cover"/>
-      <sheetName val="Project Status"/>
-      <sheetName val="Requirements Tracking"/>
-      <sheetName val="Size Tracking"/>
-      <sheetName val="Effort Tracking"/>
-      <sheetName val="Schedule Tracking"/>
-      <sheetName val="Quality Tracking"/>
-      <sheetName val="Review Tracking"/>
-      <sheetName val="Test Tracking"/>
-      <sheetName val="Critical Resource Tracking"/>
-      <sheetName val="Risk Tracking"/>
-      <sheetName val="PDB-DEV"/>
-      <sheetName val="分类数据"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -14473,8 +14448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:H10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0"/>
@@ -14488,263 +14463,263 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="34.5" customHeight="1">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
     </row>
     <row r="3" spans="2:8" ht="20" customHeight="1">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="41"/>
     </row>
     <row r="4" spans="2:8" ht="20" customHeight="1">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="48"/>
+      <c r="F4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="48"/>
+    </row>
+    <row r="5" spans="2:8" ht="20" customHeight="1">
+      <c r="B5" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="C5" s="73"/>
+      <c r="D5" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="46"/>
-    </row>
-    <row r="5" spans="2:8" ht="20" customHeight="1">
-      <c r="B5" s="43" t="s">
+      <c r="E5" s="48"/>
+      <c r="F5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="47" t="s">
+      <c r="G5" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="4" t="s">
+      <c r="H5" s="48"/>
+    </row>
+    <row r="6" spans="2:8" ht="20" customHeight="1">
+      <c r="B6" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="C6" s="73"/>
+      <c r="D6" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="46"/>
-    </row>
-    <row r="6" spans="2:8" ht="20" customHeight="1">
-      <c r="B6" s="43" t="s">
+      <c r="E6" s="48"/>
+      <c r="F6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="47" t="s">
+      <c r="G6" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="3" t="s">
+      <c r="H6" s="48"/>
+    </row>
+    <row r="7" spans="2:8" ht="20" customHeight="1">
+      <c r="B7" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="C7" s="73"/>
+      <c r="D7" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="46"/>
-    </row>
-    <row r="7" spans="2:8" ht="20" customHeight="1">
-      <c r="B7" s="43" t="s">
+      <c r="E7" s="48"/>
+      <c r="F7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="47" t="s">
+      <c r="G7" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="48"/>
+    </row>
+    <row r="8" spans="2:8" ht="20" customHeight="1">
+      <c r="B8" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="3" t="s">
+      <c r="C8" s="73"/>
+      <c r="D8" s="74">
+        <v>41827</v>
+      </c>
+      <c r="E8" s="48"/>
+      <c r="F8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="48" t="s">
-        <v>26</v>
+      <c r="G8" s="74">
+        <v>41847</v>
       </c>
-      <c r="H7" s="46"/>
+      <c r="H8" s="48"/>
     </row>
-    <row r="8" spans="2:8" ht="20" customHeight="1">
-      <c r="B8" s="43" t="s">
+    <row r="9" spans="2:8" ht="48" customHeight="1">
+      <c r="B9" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="49">
-        <v>41827</v>
-      </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="3" t="s">
+      <c r="C9" s="76"/>
+      <c r="D9" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="49">
-        <v>41847</v>
-      </c>
-      <c r="H8" s="46"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="77"/>
     </row>
-    <row r="9" spans="2:8" ht="48" customHeight="1">
-      <c r="B9" s="50" t="s">
+    <row r="10" spans="2:8" ht="20" customHeight="1">
+      <c r="B10" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="50" t="s">
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="41"/>
+    </row>
+    <row r="11" spans="2:8" ht="20" customHeight="1">
+      <c r="B11" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="52"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="51"/>
     </row>
-    <row r="10" spans="2:8" ht="20" customHeight="1">
-      <c r="B10" s="40" t="s">
+    <row r="12" spans="2:8" ht="20" customHeight="1">
+      <c r="B12" s="52"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="54"/>
+    </row>
+    <row r="13" spans="2:8" ht="20" customHeight="1">
+      <c r="B13" s="52"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="54"/>
+    </row>
+    <row r="14" spans="2:8" ht="20" customHeight="1">
+      <c r="B14" s="52"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="54"/>
+    </row>
+    <row r="15" spans="2:8" ht="20" customHeight="1">
+      <c r="B15" s="52"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="54"/>
+    </row>
+    <row r="16" spans="2:8" ht="20" customHeight="1">
+      <c r="B16" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="42"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="41"/>
     </row>
-    <row r="11" spans="2:8" ht="20" customHeight="1">
-      <c r="B11" s="74" t="s">
+    <row r="17" spans="2:8" ht="20" customHeight="1">
+      <c r="B17" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="76"/>
-    </row>
-    <row r="12" spans="2:8" ht="20" customHeight="1">
-      <c r="B12" s="77"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="79"/>
-    </row>
-    <row r="13" spans="2:8" ht="20" customHeight="1">
-      <c r="B13" s="77"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="79"/>
-    </row>
-    <row r="14" spans="2:8" ht="20" customHeight="1">
-      <c r="B14" s="77"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="79"/>
-    </row>
-    <row r="15" spans="2:8" ht="20" customHeight="1">
-      <c r="B15" s="77"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="79"/>
-    </row>
-    <row r="16" spans="2:8" ht="20" customHeight="1">
-      <c r="B16" s="40" t="s">
+      <c r="C17" s="70"/>
+      <c r="D17" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="42"/>
-    </row>
-    <row r="17" spans="2:8" ht="20" customHeight="1">
-      <c r="B17" s="53" t="s">
+      <c r="E17" s="48"/>
+      <c r="F17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="47" t="s">
+      <c r="G17" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="46"/>
-      <c r="F17" s="5" t="s">
+      <c r="H17" s="48"/>
+    </row>
+    <row r="18" spans="2:8" ht="20" customHeight="1">
+      <c r="B18" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="45" t="s">
+      <c r="C18" s="70"/>
+      <c r="D18" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="46"/>
-    </row>
-    <row r="18" spans="2:8" ht="20" customHeight="1">
-      <c r="B18" s="53" t="s">
+      <c r="E18" s="48"/>
+      <c r="F18" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="45" t="s">
+      <c r="G18" s="46"/>
+      <c r="H18" s="48"/>
+    </row>
+    <row r="19" spans="2:8" ht="20" customHeight="1">
+      <c r="B19" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="46"/>
-      <c r="F18" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="45"/>
-      <c r="H18" s="46"/>
-    </row>
-    <row r="19" spans="2:8" ht="20" customHeight="1">
-      <c r="B19" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="42"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="41"/>
     </row>
     <row r="20" spans="2:8" ht="20" customHeight="1">
       <c r="B20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="H20" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="20" customHeight="1">
       <c r="B21" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C21" s="7">
         <v>41828</v>
@@ -14756,16 +14731,16 @@
         <v>9</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="2:8" ht="20" customHeight="1">
       <c r="B22" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C22" s="7">
         <v>41837</v>
@@ -14777,48 +14752,48 @@
         <v>11</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="2:8" ht="20" customHeight="1">
-      <c r="B23" s="40" t="s">
-        <v>62</v>
+      <c r="B23" s="39" t="s">
+        <v>60</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="42"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="41"/>
     </row>
     <row r="24" spans="2:8" ht="20" customHeight="1">
       <c r="B24" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="E24" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="F24" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="G24" s="67"/>
+      <c r="H24" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="F24" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" s="56"/>
-      <c r="H24" s="10" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="20" customHeight="1">
       <c r="B25" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C25" s="7">
         <v>41828</v>
@@ -14831,7 +14806,7 @@
     </row>
     <row r="26" spans="2:8" ht="20" customHeight="1">
       <c r="B26" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C26" s="7">
         <v>41829</v>
@@ -14844,10 +14819,10 @@
     </row>
     <row r="27" spans="2:8" ht="20" customHeight="1">
       <c r="B27" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -14857,7 +14832,7 @@
     </row>
     <row r="28" spans="2:8" ht="20" customHeight="1">
       <c r="B28" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C28" s="7">
         <v>41832</v>
@@ -14870,7 +14845,7 @@
     </row>
     <row r="29" spans="2:8" ht="20" customHeight="1">
       <c r="B29" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C29" s="7">
         <v>41833</v>
@@ -14883,7 +14858,7 @@
     </row>
     <row r="30" spans="2:8" ht="20" customHeight="1">
       <c r="B30" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C30" s="7">
         <v>41834</v>
@@ -14896,10 +14871,10 @@
     </row>
     <row r="31" spans="2:8" ht="20" customHeight="1">
       <c r="B31" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -14909,7 +14884,7 @@
     </row>
     <row r="32" spans="2:8" ht="20" customHeight="1">
       <c r="B32" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C32" s="7">
         <v>41837</v>
@@ -14922,10 +14897,10 @@
     </row>
     <row r="33" spans="2:8" ht="20" customHeight="1">
       <c r="B33" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -14935,7 +14910,7 @@
     </row>
     <row r="34" spans="2:8" ht="20" customHeight="1">
       <c r="B34" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C34" s="7">
         <v>41845</v>
@@ -14948,7 +14923,7 @@
     </row>
     <row r="35" spans="2:8" ht="20" customHeight="1">
       <c r="B35" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C35" s="7">
         <v>41846</v>
@@ -14961,7 +14936,7 @@
     </row>
     <row r="36" spans="2:8" ht="20" customHeight="1">
       <c r="B36" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C36" s="7">
         <v>41846</v>
@@ -14974,7 +14949,7 @@
     </row>
     <row r="37" spans="2:8" ht="20" customHeight="1">
       <c r="B37" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C37" s="7">
         <v>41847</v>
@@ -14987,7 +14962,7 @@
     </row>
     <row r="38" spans="2:8" ht="20" customHeight="1">
       <c r="B38" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C38" s="7">
         <v>41847</v>
@@ -14999,37 +14974,37 @@
       <c r="H38" s="8"/>
     </row>
     <row r="39" spans="2:8" ht="20" customHeight="1">
-      <c r="B39" s="40" t="s">
-        <v>86</v>
+      <c r="B39" s="39" t="s">
+        <v>84</v>
       </c>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="42"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="41"/>
     </row>
     <row r="40" spans="2:8" ht="20" customHeight="1">
       <c r="B40" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="G40" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="H40" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="20" customHeight="1">
@@ -15051,170 +15026,183 @@
       <c r="H42" s="8"/>
     </row>
     <row r="43" spans="2:8" ht="20" customHeight="1">
-      <c r="B43" s="40" t="s">
+      <c r="B43" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="41"/>
+    </row>
+    <row r="44" spans="2:8" ht="20" customHeight="1">
+      <c r="B44" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="69"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="42"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="70"/>
     </row>
-    <row r="44" spans="2:8" ht="20" customHeight="1">
-      <c r="B44" s="53" t="s">
+    <row r="45" spans="2:8" ht="20" customHeight="1">
+      <c r="B45" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="57"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="53" t="s">
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="54"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="65"/>
     </row>
-    <row r="45" spans="2:8" ht="20" customHeight="1">
-      <c r="B45" s="58" t="s">
+    <row r="46" spans="2:8" ht="20" customHeight="1">
+      <c r="B46" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="59" t="s">
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="65"/>
     </row>
-    <row r="46" spans="2:8" ht="20" customHeight="1">
-      <c r="B46" s="58" t="s">
+    <row r="47" spans="2:8" ht="25" customHeight="1">
+      <c r="B47" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
-      <c r="E46" s="59" t="s">
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="59"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
     </row>
-    <row r="47" spans="2:8" ht="25" customHeight="1">
-      <c r="B47" s="58" t="s">
+    <row r="48" spans="2:8" ht="25" customHeight="1">
+      <c r="B48" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="59" t="s">
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="41"/>
+    </row>
+    <row r="49" spans="2:8" ht="25" customHeight="1">
+      <c r="B49" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="59"/>
-    </row>
-    <row r="48" spans="2:8" ht="25" customHeight="1">
-      <c r="B48" s="40" t="s">
+      <c r="C49" s="56"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="42"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="57"/>
     </row>
-    <row r="49" spans="2:8" ht="25" customHeight="1">
-      <c r="B49" s="60" t="s">
+    <row r="50" spans="2:8" ht="20" customHeight="1">
+      <c r="B50" s="58"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="44"/>
+    </row>
+    <row r="51" spans="2:8" ht="20" customHeight="1">
+      <c r="B51" s="61"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="48"/>
+    </row>
+    <row r="52" spans="2:8" ht="20" customHeight="1">
+      <c r="B52" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="61"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="60" t="s">
-        <v>99</v>
-      </c>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="62"/>
-    </row>
-    <row r="50" spans="2:8" ht="20" customHeight="1">
-      <c r="B50" s="63"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="66"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="68"/>
-    </row>
-    <row r="51" spans="2:8" ht="20" customHeight="1">
-      <c r="B51" s="69"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="71"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="72"/>
-      <c r="H51" s="46"/>
-    </row>
-    <row r="52" spans="2:8" ht="20" customHeight="1">
-      <c r="B52" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="C52" s="41"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="42"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="41"/>
     </row>
     <row r="53" spans="2:8" ht="17" customHeight="1">
       <c r="B53" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
-      <c r="C53" s="66"/>
-      <c r="D53" s="67"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="67"/>
-      <c r="H53" s="68"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="44"/>
     </row>
     <row r="54" spans="2:8" ht="20" customHeight="1">
       <c r="B54" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
-      <c r="C54" s="66"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="68"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="44"/>
     </row>
     <row r="55" spans="2:8" ht="20" customHeight="1">
       <c r="B55" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
-      <c r="C55" s="73"/>
-      <c r="D55" s="73"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
       <c r="E55" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
-      <c r="F55" s="45"/>
-      <c r="G55" s="72"/>
-      <c r="H55" s="46"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="48"/>
     </row>
     <row r="56" spans="2:8" ht="20" customHeight="1"/>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="B11:H15"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="B10:H10"/>
     <mergeCell ref="B51:D51"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="B45:D45"/>
@@ -15223,6 +15211,12 @@
     <mergeCell ref="E46:H46"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="E47:H47"/>
+    <mergeCell ref="B11:H15"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:H50"/>
     <mergeCell ref="B19:H19"/>
     <mergeCell ref="B23:H23"/>
     <mergeCell ref="F24:G24"/>
@@ -15233,30 +15227,11 @@
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="F55:H55"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
